--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronald\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTO\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85AE158-30A8-4799-BEFA-B66BF6393F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2550" windowWidth="17085" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2550" windowWidth="17085" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -225,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,7 +770,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -796,15 +795,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
+    <tableColumn id="1" name="Tarea"/>
+    <tableColumn id="2" name="ARTEFACTO"/>
+    <tableColumn id="3" name="NOMENCLATURA"/>
+    <tableColumn id="4" name="ROL"/>
+    <tableColumn id="5" name="INICIO"/>
+    <tableColumn id="6" name="FIN"/>
+    <tableColumn id="7" name="ESTADO"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1007,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1015,10 +1014,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
@@ -1029,7 +1028,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1099,7 +1098,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="34" t="s">
         <v>54</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>21</v>
       </c>
@@ -1186,10 +1185,10 @@
         <v>45785</v>
       </c>
       <c r="G7" s="30">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="20" t="s">
         <v>22</v>
       </c>
@@ -1212,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="23" t="s">
         <v>26</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>55</v>
       </c>
@@ -1258,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>30</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>33</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="24" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="20" t="s">
         <v>37</v>
       </c>
@@ -1348,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>41</v>
       </c>
@@ -1371,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>45</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="24" t="s">
         <v>48</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>51</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="45" t="s">
         <v>58</v>
       </c>
@@ -1455,16 +1454,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -269,12 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="1"/>
@@ -333,6 +327,10 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="11">
@@ -628,9 +626,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -640,46 +635,46 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -688,7 +683,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -701,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -715,21 +710,24 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,25 +1027,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1070,7 +1068,7 @@
       <c r="F2" s="4">
         <v>45743</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>1</v>
       </c>
     </row>
@@ -1093,7 +1091,7 @@
       <c r="F3" s="8">
         <v>45750</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>1</v>
       </c>
       <c r="H3" s="9"/>
@@ -1105,7 +1103,7 @@
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1117,44 +1115,44 @@
       <c r="F4" s="4">
         <v>45757</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="43" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>45757</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>45764</v>
       </c>
-      <c r="G5" s="30">
-        <v>0.9</v>
+      <c r="G5" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4">
@@ -1163,39 +1161,39 @@
       <c r="F6" s="4">
         <v>45785</v>
       </c>
-      <c r="G6" s="33">
-        <v>0.5</v>
+      <c r="G6" s="32">
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18">
         <v>45785</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1204,251 +1202,251 @@
       <c r="E8" s="4">
         <v>45774</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <v>45778</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>45778</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="21">
         <v>45781</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="42" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="41">
         <v>45781</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="41">
         <v>45789</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>45789</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>45790</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27">
+      <c r="E12" s="26"/>
+      <c r="F12" s="26">
         <v>45790</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>45790</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <v>45791</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="27">
         <v>45791</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>45834</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="25">
         <v>45791</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="25">
         <v>45834</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="27">
         <v>45811</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>45814</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>45815</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>45818</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="27">
         <v>45819</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>45820</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="46">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="45">
         <v>0</v>
       </c>
     </row>
@@ -1466,8 +1464,9 @@
     <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTO\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9CA60-455A-42C9-B8B3-036ED20A4241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2550" windowWidth="17085" windowHeight="11385"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -224,8 +225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,7 +769,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3">
+    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -793,15 +794,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Tarea"/>
-    <tableColumn id="2" name="ARTEFACTO"/>
-    <tableColumn id="3" name="NOMENCLATURA"/>
-    <tableColumn id="4" name="ROL"/>
-    <tableColumn id="5" name="INICIO"/>
-    <tableColumn id="6" name="FIN"/>
-    <tableColumn id="7" name="ESTADO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,7 +1005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1012,21 +1013,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1097,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1183,10 +1184,10 @@
         <v>45785</v>
       </c>
       <c r="G7" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -1200,16 +1201,16 @@
         <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>45774</v>
+        <v>45755</v>
       </c>
       <c r="F8" s="21">
-        <v>45778</v>
+        <v>45792</v>
       </c>
       <c r="G8" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1223,16 +1224,16 @@
         <v>29</v>
       </c>
       <c r="E9" s="21">
-        <v>45778</v>
+        <v>45785</v>
       </c>
       <c r="F9" s="21">
-        <v>45781</v>
+        <v>45792</v>
       </c>
       <c r="G9" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
@@ -1246,16 +1247,16 @@
         <v>20</v>
       </c>
       <c r="E10" s="41">
-        <v>45781</v>
+        <v>45792</v>
       </c>
       <c r="F10" s="41">
-        <v>45789</v>
+        <v>45799</v>
       </c>
       <c r="G10" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1269,16 +1270,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="25">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="F11" s="25">
-        <v>45790</v>
+        <v>45799</v>
       </c>
       <c r="G11" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1293,13 +1294,13 @@
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26">
-        <v>45790</v>
+        <v>45799</v>
       </c>
       <c r="G12" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1313,16 +1314,16 @@
         <v>36</v>
       </c>
       <c r="E13" s="25">
-        <v>45790</v>
+        <v>45799</v>
       </c>
       <c r="F13" s="25">
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="G13" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1336,16 +1337,16 @@
         <v>40</v>
       </c>
       <c r="E14" s="27">
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="F14" s="27">
-        <v>45834</v>
+        <v>45827</v>
       </c>
       <c r="G14" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="25">
-        <v>45791</v>
+        <v>45800</v>
       </c>
       <c r="F15" s="25">
         <v>45834</v>
@@ -1368,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1382,16 +1383,16 @@
         <v>47</v>
       </c>
       <c r="E16" s="27">
-        <v>45811</v>
+        <v>45834</v>
       </c>
       <c r="F16" s="27">
-        <v>45814</v>
+        <v>45841</v>
       </c>
       <c r="G16" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1405,16 +1406,16 @@
         <v>50</v>
       </c>
       <c r="E17" s="25">
-        <v>45815</v>
+        <v>45841</v>
       </c>
       <c r="F17" s="25">
-        <v>45818</v>
+        <v>45848</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -1428,16 +1429,16 @@
         <v>53</v>
       </c>
       <c r="E18" s="27">
-        <v>45819</v>
+        <v>45848</v>
       </c>
       <c r="F18" s="27">
-        <v>45820</v>
+        <v>45850</v>
       </c>
       <c r="G18" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44" t="s">
         <v>58</v>
       </c>
@@ -1452,16 +1453,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9"/>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E9CA60-455A-42C9-B8B3-036ED20A4241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660059A3-685E-496E-93DC-9941726519B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -1011,9 +1011,9 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1207,7 +1207,7 @@
         <v>45792</v>
       </c>
       <c r="G8" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1253,7 +1253,7 @@
         <v>45799</v>
       </c>
       <c r="G10" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660059A3-685E-496E-93DC-9941726519B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B663ECF-327A-4502-A5C3-519E508E8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -1013,7 +1013,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1297,7 +1297,7 @@
         <v>45799</v>
       </c>
       <c r="G12" s="29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B663ECF-327A-4502-A5C3-519E508E8B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D190AC5-2F1F-487B-B392-ACF50871E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2628" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -1297,7 +1297,7 @@
         <v>45799</v>
       </c>
       <c r="G12" s="29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROYECTO\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1010,9 +1010,9 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1206,7 +1206,7 @@
         <v>45778</v>
       </c>
       <c r="G8" s="29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1162,7 +1162,7 @@
         <v>45785</v>
       </c>
       <c r="G6" s="32">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1">
@@ -1206,7 +1206,7 @@
         <v>45778</v>
       </c>
       <c r="G8" s="29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D190AC5-2F1F-487B-B392-ACF50871E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58930A-F835-46B5-9B4F-06CA37DADA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2628" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -1011,9 +1011,9 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A58930A-F835-46B5-9B4F-06CA37DADA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10020" yWindow="2550" windowWidth="17085" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -225,8 +224,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,7 +768,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -794,15 +793,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
+    <tableColumn id="1" name="Tarea"/>
+    <tableColumn id="2" name="ARTEFACTO"/>
+    <tableColumn id="3" name="NOMENCLATURA"/>
+    <tableColumn id="4" name="ROL"/>
+    <tableColumn id="5" name="INICIO"/>
+    <tableColumn id="6" name="FIN"/>
+    <tableColumn id="7" name="ESTADO"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1005,29 +1004,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1097,7 +1096,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
@@ -1166,7 +1165,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1184,10 +1183,10 @@
         <v>45785</v>
       </c>
       <c r="G7" s="29">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -1201,16 +1200,16 @@
         <v>25</v>
       </c>
       <c r="E8" s="4">
-        <v>45755</v>
+        <v>45774</v>
       </c>
       <c r="F8" s="21">
-        <v>45792</v>
+        <v>45778</v>
       </c>
       <c r="G8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1224,16 +1223,16 @@
         <v>29</v>
       </c>
       <c r="E9" s="21">
-        <v>45785</v>
+        <v>45778</v>
       </c>
       <c r="F9" s="21">
-        <v>45792</v>
+        <v>45781</v>
       </c>
       <c r="G9" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
@@ -1247,16 +1246,16 @@
         <v>20</v>
       </c>
       <c r="E10" s="41">
-        <v>45792</v>
+        <v>45781</v>
       </c>
       <c r="F10" s="41">
-        <v>45799</v>
+        <v>45789</v>
       </c>
       <c r="G10" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1270,16 +1269,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="25">
-        <v>45792</v>
+        <v>45789</v>
       </c>
       <c r="F11" s="25">
-        <v>45799</v>
+        <v>45790</v>
       </c>
       <c r="G11" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1294,13 +1293,13 @@
       </c>
       <c r="E12" s="26"/>
       <c r="F12" s="26">
-        <v>45799</v>
+        <v>45790</v>
       </c>
       <c r="G12" s="29">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1314,16 +1313,16 @@
         <v>36</v>
       </c>
       <c r="E13" s="25">
-        <v>45799</v>
+        <v>45790</v>
       </c>
       <c r="F13" s="25">
-        <v>45800</v>
+        <v>45791</v>
       </c>
       <c r="G13" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1337,16 +1336,16 @@
         <v>40</v>
       </c>
       <c r="E14" s="27">
-        <v>45800</v>
+        <v>45791</v>
       </c>
       <c r="F14" s="27">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="G14" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>44</v>
       </c>
       <c r="E15" s="25">
-        <v>45800</v>
+        <v>45791</v>
       </c>
       <c r="F15" s="25">
         <v>45834</v>
@@ -1369,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1383,16 +1382,16 @@
         <v>47</v>
       </c>
       <c r="E16" s="27">
-        <v>45834</v>
+        <v>45811</v>
       </c>
       <c r="F16" s="27">
-        <v>45841</v>
+        <v>45814</v>
       </c>
       <c r="G16" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1406,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="E17" s="25">
-        <v>45841</v>
+        <v>45815</v>
       </c>
       <c r="F17" s="25">
-        <v>45848</v>
+        <v>45818</v>
       </c>
       <c r="G17" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -1429,16 +1428,16 @@
         <v>53</v>
       </c>
       <c r="E18" s="27">
-        <v>45848</v>
+        <v>45819</v>
       </c>
       <c r="F18" s="27">
-        <v>45850</v>
+        <v>45820</v>
       </c>
       <c r="G18" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>58</v>
       </c>
@@ -1453,16 +1452,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,12 +1010,12 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
@@ -1026,7 +1026,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -1206,10 +1206,10 @@
         <v>45778</v>
       </c>
       <c r="G8" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
@@ -1252,10 +1252,10 @@
         <v>45789</v>
       </c>
       <c r="G10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1275,10 +1275,10 @@
         <v>45790</v>
       </c>
       <c r="G11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>58</v>
       </c>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1010,12 +1010,12 @@
   </sheetPr>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
@@ -1026,7 +1026,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1229,10 +1229,10 @@
         <v>45781</v>
       </c>
       <c r="G9" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1">
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="44" t="s">
         <v>58</v>
       </c>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1012,7 +1012,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1229,7 +1229,7 @@
         <v>45781</v>
       </c>
       <c r="G9" s="29">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1">

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM-Proyectos\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259F2D2C-2F64-4513-8CDB-3ABA680C7F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10020" yWindow="2550" windowWidth="17085" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Tarea</t>
   </si>
@@ -219,13 +220,16 @@
   </si>
   <si>
     <t>SGC-DE.docx</t>
+  </si>
+  <si>
+    <t>Completado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,7 +772,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3">
+    <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -793,15 +797,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
   <tableColumns count="7">
-    <tableColumn id="1" name="Tarea"/>
-    <tableColumn id="2" name="ARTEFACTO"/>
-    <tableColumn id="3" name="NOMENCLATURA"/>
-    <tableColumn id="4" name="ROL"/>
-    <tableColumn id="5" name="INICIO"/>
-    <tableColumn id="6" name="FIN"/>
-    <tableColumn id="7" name="ESTADO"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,7 +1008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1012,10 +1016,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="2" width="46.140625" customWidth="1"/>
@@ -1026,7 +1030,7 @@
     <col min="7" max="7" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1096,7 +1100,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1119,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1142,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>54</v>
       </c>
@@ -1165,7 +1169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1232,7 +1236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>55</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1278,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1295,11 +1299,11 @@
       <c r="F12" s="26">
         <v>45790</v>
       </c>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+      <c r="G12" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1319,10 +1323,10 @@
         <v>45791</v>
       </c>
       <c r="G13" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1342,10 +1346,10 @@
         <v>45834</v>
       </c>
       <c r="G14" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
@@ -1365,10 +1369,10 @@
         <v>45834</v>
       </c>
       <c r="G15" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>51</v>
       </c>
@@ -1437,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
         <v>58</v>
       </c>
@@ -1452,16 +1456,16 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9"/>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM-Proyectos\Gestión de la configuración\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestion\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259F2D2C-2F64-4513-8CDB-3ABA680C7F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FBC37-B816-43C7-8D43-A1C791057427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Tarea</t>
   </si>
@@ -180,15 +180,6 @@
     <t>QA</t>
   </si>
   <si>
-    <t>Despliegue en ambiente de producción</t>
-  </si>
-  <si>
-    <t>Manual de Despliegue</t>
-  </si>
-  <si>
-    <t>Project Manager / QA</t>
-  </si>
-  <si>
     <t>Elaboracion Plan de Gestión de la Configuración</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
   </si>
   <si>
     <t>SGC-PGC.docx</t>
-  </si>
-  <si>
-    <t>SGC-MP.docx</t>
   </si>
   <si>
     <t>SGC-RP.docx</t>
@@ -797,7 +785,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G19" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18" headerRowDxfId="0">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
@@ -1012,25 +1000,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="2" max="2" width="46.109375" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1088,7 @@
       </c>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1146,15 +1134,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>10</v>
@@ -1169,7 +1157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -1190,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>26</v>
       </c>
@@ -1236,15 +1224,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
@@ -1259,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1282,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
@@ -1300,10 +1288,10 @@
         <v>45790</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
@@ -1311,7 +1299,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>36</v>
@@ -1323,10 +1311,10 @@
         <v>45791</v>
       </c>
       <c r="G13" s="29">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1346,10 +1334,10 @@
         <v>45834</v>
       </c>
       <c r="G14" s="29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>41</v>
       </c>
@@ -1369,10 +1357,10 @@
         <v>45834</v>
       </c>
       <c r="G15" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
@@ -1380,7 +1368,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -1392,10 +1380,10 @@
         <v>45814</v>
       </c>
       <c r="G16" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
         <v>48</v>
       </c>
@@ -1403,7 +1391,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>50</v>
@@ -1415,52 +1403,29 @@
         <v>45818</v>
       </c>
       <c r="G17" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="27">
-        <v>45819</v>
-      </c>
-      <c r="F18" s="27">
-        <v>45820</v>
-      </c>
-      <c r="G18" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="45">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="A11:A19 A2:D7 B8:D19 A8:A9" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="G2:G7 G8:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="A2:D7 A8:A9 B8:D18 A11:A18" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="G2:G18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Sin comenzar,En curso,Bloqueado,Completado"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F7 E8:F19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:F18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D"))</formula1>
     </dataValidation>
   </dataValidations>

--- a/Desarrollo/SGC/Gestion/Cronograma.xlsx
+++ b/Desarrollo/SGC/Gestion/Cronograma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Gestion\FisiDev-Solutions\Desarrollo\SGC\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7FBC37-B816-43C7-8D43-A1C791057427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AA6C4A-447D-411E-A4A4-BF942E6E4B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRONOGRAMA" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>Tarea</t>
   </si>
@@ -201,9 +201,6 @@
     <t>SGC-PGC.docx</t>
   </si>
   <si>
-    <t>SGC-RP.docx</t>
-  </si>
-  <si>
     <t>SGC-PI.docx</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>Completado</t>
+  </si>
+  <si>
+    <t>SGC-RP.xlsx</t>
   </si>
 </sst>
 </file>
@@ -364,12 +364,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF9933FF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -386,8 +380,14 @@
         <bgColor rgb="FF5B3F86"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC189F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -517,21 +517,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
@@ -588,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -627,19 +612,19 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -663,70 +648,76 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FFFFFFFF"/>
+        </right>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -761,9 +752,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="CRONOGRAMA-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -785,15 +776,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CRONOGRAMA_DE_ACTIVIDADES" displayName="CRONOGRAMA_DE_ACTIVIDADES" ref="A1:G18" headerRowDxfId="2">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tarea"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ARTEFACTO"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NOMENCLATURA"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ROL"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="INICIO"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="FIN" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="ESTADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="CRONOGRAMA-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1004,7 +995,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1019,25 +1010,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1060,8 +1051,8 @@
       <c r="F2" s="4">
         <v>45743</v>
       </c>
-      <c r="G2" s="28">
-        <v>1</v>
+      <c r="G2" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1083,8 +1074,8 @@
       <c r="F3" s="8">
         <v>45750</v>
       </c>
-      <c r="G3" s="29">
-        <v>1</v>
+      <c r="G3" s="45" t="s">
+        <v>60</v>
       </c>
       <c r="H3" s="9"/>
     </row>
@@ -1095,7 +1086,7 @@
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -1107,8 +1098,8 @@
       <c r="F4" s="4">
         <v>45757</v>
       </c>
-      <c r="G4" s="28">
-        <v>1</v>
+      <c r="G4" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1121,7 +1112,7 @@
       <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="40" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="8">
@@ -1130,21 +1121,21 @@
       <c r="F5" s="13">
         <v>45764</v>
       </c>
-      <c r="G5" s="29">
-        <v>1</v>
+      <c r="G5" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4">
@@ -1153,8 +1144,8 @@
       <c r="F6" s="4">
         <v>45785</v>
       </c>
-      <c r="G6" s="32">
-        <v>1</v>
+      <c r="G6" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1174,15 +1165,15 @@
       <c r="F7" s="18">
         <v>45785</v>
       </c>
-      <c r="G7" s="29">
-        <v>1</v>
+      <c r="G7" s="46" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -1197,8 +1188,8 @@
       <c r="F8" s="21">
         <v>45778</v>
       </c>
-      <c r="G8" s="29">
-        <v>1</v>
+      <c r="G8" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1220,31 +1211,31 @@
       <c r="F9" s="21">
         <v>45781</v>
       </c>
-      <c r="G9" s="29">
-        <v>1</v>
+      <c r="G9" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="39" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="38">
         <v>45781</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="38">
         <v>45789</v>
       </c>
-      <c r="G10" s="29">
-        <v>1</v>
+      <c r="G10" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1266,8 +1257,8 @@
       <c r="F11" s="25">
         <v>45790</v>
       </c>
-      <c r="G11" s="29">
-        <v>1</v>
+      <c r="G11" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1287,8 +1278,8 @@
       <c r="F12" s="26">
         <v>45790</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>61</v>
+      <c r="G12" s="46" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1299,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>36</v>
@@ -1310,8 +1301,8 @@
       <c r="F13" s="25">
         <v>45791</v>
       </c>
-      <c r="G13" s="29">
-        <v>1</v>
+      <c r="G13" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1333,8 +1324,8 @@
       <c r="F14" s="27">
         <v>45834</v>
       </c>
-      <c r="G14" s="29">
-        <v>1</v>
+      <c r="G14" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1356,8 +1347,8 @@
       <c r="F15" s="25">
         <v>45834</v>
       </c>
-      <c r="G15" s="29">
-        <v>1</v>
+      <c r="G15" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1368,7 +1359,7 @@
         <v>46</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>47</v>
@@ -1379,8 +1370,8 @@
       <c r="F16" s="27">
         <v>45814</v>
       </c>
-      <c r="G16" s="29">
-        <v>1</v>
+      <c r="G16" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1391,7 +1382,7 @@
         <v>49</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>50</v>
@@ -1402,21 +1393,21 @@
       <c r="F17" s="25">
         <v>45818</v>
       </c>
-      <c r="G17" s="29">
-        <v>1</v>
+      <c r="G17" s="45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="45">
-        <v>1</v>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="46" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
